--- a/biology/Biochimie/Diméthylallyl-pyrophosphate/Diméthylallyl-pyrophosphate.xlsx
+++ b/biology/Biochimie/Diméthylallyl-pyrophosphate/Diméthylallyl-pyrophosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dim%C3%A9thylallyl-pyrophosphate</t>
+          <t>Diméthylallyl-pyrophosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le diméthylallyl-pyrophosphate (DMAPP)[2] est un composé chimique de formule semi-développée (CH3)2C=CH–CH2–O–POO−–O–PO(O−)2. C'est un isomère de l'isopentényl-pyrophosphate (IPP). Il est présent dans à peu près toutes les formes de vie.
+Le diméthylallyl-pyrophosphate (DMAPP) est un composé chimique de formule semi-développée (CH3)2C=CH–CH2–O–POO−–O–PO(O−)2. C'est un isomère de l'isopentényl-pyrophosphate (IPP). Il est présent dans à peu près toutes les formes de vie.
 C'est un intermédiaire de la voie du mévalonate, une voie métabolique de biosynthèse du diméthylallyl-pyrophosphate et de l'isopentényl-pyrophosphate, précurseurs notamment des terpènes, terpénoïdes et stéroïdes. Il est formé à partir d'acétyl-CoA et d'acide mévalonique, qui donnent de l'IPP, lequel est isomérisé en DMAPP par l'isopentényle diphosphate delta-isomérase.
 </t>
         </is>
